--- a/Banco Central/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
+++ b/Banco Central/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Serie</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2304,7 +2307,7 @@
         <v>79.40000000000001</v>
       </c>
       <c r="I50">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="J50">
         <v>80.59999999999999</v>
@@ -2356,7 +2359,7 @@
         <v>90.8</v>
       </c>
       <c r="E52">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F52">
         <v>83.8</v>
@@ -2411,7 +2414,7 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="C54">
         <v>85.90000000000001</v>
@@ -2426,7 +2429,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="G54">
-        <v>65</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H54">
         <v>81.59999999999999</v>
@@ -2467,7 +2470,7 @@
         <v>81.3</v>
       </c>
       <c r="J55">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2682,7 +2685,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="G62">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H62">
         <v>89.90000000000001</v>
@@ -2766,13 +2769,13 @@
         <v>92.90000000000001</v>
       </c>
       <c r="C65">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D65">
         <v>92.8</v>
       </c>
       <c r="E65">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F65">
         <v>93.09999999999999</v>
@@ -2810,7 +2813,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="G66">
-        <v>89.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="H66">
         <v>95.59999999999999</v>
@@ -2906,7 +2909,7 @@
         <v>96.7</v>
       </c>
       <c r="G69">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="H69">
         <v>98</v>
@@ -3060,7 +3063,7 @@
         <v>103</v>
       </c>
       <c r="E74">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F74">
         <v>98.5</v>
@@ -3156,7 +3159,7 @@
         <v>101.5</v>
       </c>
       <c r="E77">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="F77">
         <v>102.9</v>
@@ -3191,7 +3194,7 @@
         <v>97.8</v>
       </c>
       <c r="F78">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="G78">
         <v>104.2</v>
@@ -3290,7 +3293,7 @@
         <v>106</v>
       </c>
       <c r="G81">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="H81">
         <v>107.2</v>
@@ -3310,13 +3313,13 @@
         <v>105.6</v>
       </c>
       <c r="C82">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D82">
         <v>103.4</v>
       </c>
       <c r="E82">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F82">
         <v>106.2</v>
@@ -3380,13 +3383,13 @@
         <v>96.40000000000001</v>
       </c>
       <c r="E84">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F84">
         <v>108.4</v>
       </c>
       <c r="G84">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="H84">
         <v>109</v>
@@ -3444,19 +3447,19 @@
         <v>89.2</v>
       </c>
       <c r="E86">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F86">
         <v>107.1</v>
       </c>
       <c r="G86">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="H86">
         <v>108.4</v>
       </c>
       <c r="I86">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="J86">
         <v>106.8</v>
@@ -3502,7 +3505,7 @@
         <v>108.2</v>
       </c>
       <c r="C88">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="D88">
         <v>101.7</v>
@@ -3514,7 +3517,7 @@
         <v>107.8</v>
       </c>
       <c r="G88">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="H88">
         <v>110.8</v>
@@ -3531,7 +3534,7 @@
         <v>97</v>
       </c>
       <c r="B89">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="C89">
         <v>104.8</v>
@@ -3549,7 +3552,7 @@
         <v>110.8</v>
       </c>
       <c r="H89">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="I89">
         <v>108.8</v>
@@ -3563,7 +3566,7 @@
         <v>98</v>
       </c>
       <c r="B90">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="C90">
         <v>106.2</v>
@@ -3572,10 +3575,10 @@
         <v>105.8</v>
       </c>
       <c r="E90">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="F90">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="G90">
         <v>112.4</v>
@@ -3584,10 +3587,10 @@
         <v>112.5</v>
       </c>
       <c r="I90">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="J90">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3607,10 +3610,10 @@
         <v>105.2</v>
       </c>
       <c r="F91">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="G91">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="H91">
         <v>113.7</v>
@@ -3630,19 +3633,19 @@
         <v>111</v>
       </c>
       <c r="C92">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="D92">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="E92">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="F92">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="G92">
-        <v>114.3</v>
+        <v>114.1</v>
       </c>
       <c r="H92">
         <v>114.2</v>
@@ -3700,13 +3703,13 @@
         <v>96.5</v>
       </c>
       <c r="E94">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="F94">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="G94">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="H94">
         <v>116.4</v>
@@ -3732,13 +3735,13 @@
         <v>98.09999999999999</v>
       </c>
       <c r="E95">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="F95">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="G95">
-        <v>116.1</v>
+        <v>116.2</v>
       </c>
       <c r="H95">
         <v>117.2</v>
@@ -3755,7 +3758,7 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>114.1</v>
+        <v>114</v>
       </c>
       <c r="C96">
         <v>107.2</v>
@@ -3764,13 +3767,13 @@
         <v>102.2</v>
       </c>
       <c r="E96">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="F96">
         <v>112.6</v>
       </c>
       <c r="G96">
-        <v>115.8</v>
+        <v>115.6</v>
       </c>
       <c r="H96">
         <v>118</v>
@@ -3796,13 +3799,13 @@
         <v>101.7</v>
       </c>
       <c r="E97">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="F97">
         <v>111</v>
       </c>
       <c r="G97">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="H97">
         <v>112.8</v>
@@ -3822,19 +3825,19 @@
         <v>111.8</v>
       </c>
       <c r="C98">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D98">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="E98">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="F98">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="G98">
-        <v>110.8</v>
+        <v>111</v>
       </c>
       <c r="H98">
         <v>115.9</v>
@@ -3843,7 +3846,7 @@
         <v>111.8</v>
       </c>
       <c r="J98">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3863,7 +3866,7 @@
         <v>92.7</v>
       </c>
       <c r="F99">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="G99">
         <v>93.8</v>
@@ -3886,19 +3889,19 @@
         <v>102.9</v>
       </c>
       <c r="C100">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="D100">
         <v>101.7</v>
       </c>
       <c r="E100">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F100">
         <v>94</v>
       </c>
       <c r="G100">
-        <v>114.7</v>
+        <v>114.4</v>
       </c>
       <c r="H100">
         <v>103.2</v>
@@ -3907,7 +3910,7 @@
         <v>102.3</v>
       </c>
       <c r="J100">
-        <v>103</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3947,22 +3950,22 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="C102">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D102">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="E102">
-        <v>105.4</v>
+        <v>105.6</v>
       </c>
       <c r="F102">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="G102">
-        <v>125.2</v>
+        <v>125.5</v>
       </c>
       <c r="H102">
         <v>116.2</v>
@@ -3971,7 +3974,39 @@
         <v>112.5</v>
       </c>
       <c r="J102">
-        <v>114.6</v>
+        <v>114.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103">
+        <v>113.9</v>
+      </c>
+      <c r="C103">
+        <v>105.9</v>
+      </c>
+      <c r="D103">
+        <v>102.7</v>
+      </c>
+      <c r="E103">
+        <v>106.7</v>
+      </c>
+      <c r="F103">
+        <v>108.3</v>
+      </c>
+      <c r="G103">
+        <v>135.5</v>
+      </c>
+      <c r="H103">
+        <v>113.5</v>
+      </c>
+      <c r="I103">
+        <v>112.7</v>
+      </c>
+      <c r="J103">
+        <v>115.3</v>
       </c>
     </row>
   </sheetData>
